--- a/crmZoho/src/test/resources/dataRepo/inputData.xlsx
+++ b/crmZoho/src/test/resources/dataRepo/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="5175" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="4275" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lead" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Dashboard" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N15"/>
+  <oleSize ref="A1:N12"/>
 </workbook>
 </file>
 
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
